--- a/biology/Zoologie/Louis_Gabriel_d'Antessanty/Louis_Gabriel_d'Antessanty.xlsx
+++ b/biology/Zoologie/Louis_Gabriel_d'Antessanty/Louis_Gabriel_d'Antessanty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Gabriel_d%27Antessanty</t>
+          <t>Louis_Gabriel_d'Antessanty</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’abbé Louis Gabriel d'Antessanty est un entomologiste français, né le 26 octobre 1834 à Hampigny (Aube) et mort le 6 janvier 1922 à Troyes.
-Les types de nouvelles espèces d’hémiptères qu’il a décrits sont listés par Maurice Royer (1878-1942) en 1922[1].
+Les types de nouvelles espèces d’hémiptères qu’il a décrits sont listés par Maurice Royer (1878-1942) en 1922.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Gabriel_d%27Antessanty</t>
+          <t>Louis_Gabriel_d'Antessanty</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1881 : L'étude des Hemiptères. Feuille des Jeunes naturalistes, XIII.
 1891 : Catalogue des Hémiptères-Hétéroptères de l'Aube Dufour-Bouquot, plaquette grand In-8 broché (Troyes).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Gabriel_d%27Antessanty</t>
+          <t>Louis_Gabriel_d'Antessanty</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 7 mai 2007).</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louis_Gabriel_d%27Antessanty</t>
+          <t>Louis_Gabriel_d'Antessanty</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ " Les types de la collection d'Hémiptères de l'abbé G. d'Antessanty ". Bulletin de la Société entomologique de France 1922 : 268-269.
